--- a/log_frame_issues.xlsx
+++ b/log_frame_issues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna.kurovska\OneDrive - World Food Programme\Documents\wfp_data_cleaning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F649F78-76F1-42EE-80EC-DC084C6EFFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAF5D1B-B6F5-478E-ACF3-39AE29E886C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -605,7 +605,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K23"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -694,7 +694,7 @@
         <v>79</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
         <v>82</v>
